--- a/data/georgia_census/qvemo-qartli/rustavi/average_wages.xlsx
+++ b/data/georgia_census/qvemo-qartli/rustavi/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D319EBF5-7523-4362-BEDC-64A0C822BE85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F3AADF-B395-4871-BD60-FA3DDC7BAA24}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A7D8C8B-8A80-448D-BA71-E8A268F64349}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFAAC08-0069-4218-A5D5-7337A347D373}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5648D36B-FC15-4B99-A009-4826B40B1756}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69EA8565-364A-4B05-A5D1-C6EB2467C251}"/>
 </file>